--- a/exelPoject/MK-Milap-Candidates.xlsx
+++ b/exelPoject/MK-Milap-Candidates.xlsx
@@ -1777,7 +1777,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2289,28 +2317,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:P93" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="27" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:P93" headerRowDxfId="35" dataDxfId="33" totalsRowDxfId="31" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="A2:P93"/>
   <sortState ref="A3:P93">
     <sortCondition descending="1" ref="D2:D93"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="6" name="Gender_x000a_લિંગ" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="7" name="Muslim Khatri Type_x000a_મુસ્લિમ ખત્રી પ્રકાર" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="8" name="Birth Year_x000a_જન્મ વર્ષ" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="9" name="Marital Status_x000a_વૈવાહિક સ્થિતિ" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Current Location_x000a_વર્તમાન સ્થાન" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="13" name="Permanent Location_x000a_કાયમી સ્થાન" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="14" name="Education (Dunyavi)_x000a_(શિક્ષણ (દુન્યાવી))" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="Degree (Dunyavi)_x000a_ડિગ્રી (દુન્યાવી)" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="17" name="Education (Deeni)_x000a_શિક્ષણ (દિની)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="18" name="Occupation_x000a_વ્યવસાય" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="19" name="Other Details_x000a_અન્ય વિગતો" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="20" name="Muslim Khatri Type_x000a_મુસ્લિમ ખત્રી પ્રકાર " dataDxfId="3"/>
-    <tableColumn id="21" name="Other Requirement Details_x000a_અન્ય આવશ્યક વિગતો" dataDxfId="2"/>
-    <tableColumn id="22" name="Full Name_x000a_પૂરું નામ" dataDxfId="1"/>
-    <tableColumn id="23" name="Mobile Number_x000a_મોબાઇલ નંબર" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="30"/>
+    <tableColumn id="6" name="Gender_x000a_લિંગ" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="7" name="Muslim Khatri Type_x000a_મુસ્લિમ ખત્રી પ્રકાર" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="Birth Year_x000a_જન્મ વર્ષ" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="9" name="Marital Status_x000a_વૈવાહિક સ્થિતિ" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="Current Location_x000a_વર્તમાન સ્થાન" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="13" name="Permanent Location_x000a_કાયમી સ્થાન" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="14" name="Education (Dunyavi)_x000a_(શિક્ષણ (દુન્યાવી))" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="15" name="Degree (Dunyavi)_x000a_ડિગ્રી (દુન્યાવી)" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="17" name="Education (Deeni)_x000a_શિક્ષણ (દિની)" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="18" name="Occupation_x000a_વ્યવસાય" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="19" name="Other Details_x000a_અન્ય વિગતો" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="20" name="Muslim Khatri Type_x000a_મુસ્લિમ ખત્રી પ્રકાર " dataDxfId="7"/>
+    <tableColumn id="21" name="Other Requirement Details_x000a_અન્ય આવશ્યક વિગતો" dataDxfId="6"/>
+    <tableColumn id="22" name="Full Name_x000a_પૂરું નામ" dataDxfId="5"/>
+    <tableColumn id="23" name="Mobile Number_x000a_મોબાઇલ નંબર" totalsRowFunction="count" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2616,13 +2644,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6992,7 +7020,79 @@
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="14"/>
+    </row>
+    <row r="95" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="14"/>
+    </row>
+    <row r="96" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="14"/>
+    </row>
+    <row r="97" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="14"/>
+    </row>
+    <row r="98" spans="1:16" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="M1:N1"/>
@@ -7000,11 +7100,19 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:P93">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$B3="Male (પુરુષ)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$B3 ="Female (સ્ત્રી)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:P97">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$B94="Male (પુરુષ)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$B94 ="Female (સ્ત્રી)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
